--- a/Output/Japan/PRODUCTS_Japan.xlsx
+++ b/Output/Japan/PRODUCTS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="126">
   <si>
     <t>PRODUCTCODE</t>
   </si>
@@ -426,8 +426,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -497,10 +499,10 @@
       <c r="F2" t="n">
         <v>7305.0</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="3" t="n">
         <v>14567.3451</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="4" t="n">
         <v>31489.0086</v>
       </c>
     </row>
@@ -523,10 +525,10 @@
       <c r="F3" s="0" t="n">
         <v>6625.0</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3" t="n">
         <v>10152.9981</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>17510.2431</v>
       </c>
     </row>
@@ -549,10 +551,10 @@
       <c r="F4" s="0" t="n">
         <v>5582.0</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="3" t="n">
         <v>13390.1859</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>28546.1106</v>
       </c>
     </row>
@@ -575,10 +577,10 @@
       <c r="F5" s="0" t="n">
         <v>1579.0</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>11477.3022</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>20158.851300000002</v>
       </c>
     </row>
@@ -601,10 +603,10 @@
       <c r="F6" s="0" t="n">
         <v>6906.0</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="3" t="n">
         <v>13095.8961</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <v>22218.8799</v>
       </c>
     </row>
@@ -627,10 +629,10 @@
       <c r="F7" s="0" t="n">
         <v>1049.0</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>12213.0267</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4" t="n">
         <v>25456.0677</v>
       </c>
     </row>
@@ -653,10 +655,10 @@
       <c r="F8" s="0" t="n">
         <v>2613.0</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="3" t="n">
         <v>8534.4042</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <v>17215.9533</v>
       </c>
     </row>
@@ -679,10 +681,10 @@
       <c r="F9" s="0" t="n">
         <v>3975.0</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="3" t="n">
         <v>12360.171600000001</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="4" t="n">
         <v>20894.575800000002</v>
       </c>
     </row>
@@ -705,10 +707,10 @@
       <c r="F10" s="0" t="n">
         <v>5330.0</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="3" t="n">
         <v>11330.1573</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="4" t="n">
         <v>23248.894200000002</v>
       </c>
     </row>
@@ -731,10 +733,10 @@
       <c r="F11" s="0" t="n">
         <v>9772.0</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="3" t="n">
         <v>13831.6206</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <v>20894.575800000002</v>
       </c>
     </row>
@@ -757,10 +759,10 @@
       <c r="F12" s="0" t="n">
         <v>992.0</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="3" t="n">
         <v>7210.100100000001</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="4" t="n">
         <v>12360.171600000001</v>
       </c>
     </row>
@@ -783,10 +785,10 @@
       <c r="F13" s="0" t="n">
         <v>4357.0</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="3" t="n">
         <v>3531.4776</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="4" t="n">
         <v>8975.8389</v>
       </c>
     </row>
@@ -809,10 +811,10 @@
       <c r="F14" s="0" t="n">
         <v>3913.0</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="3" t="n">
         <v>10005.853200000001</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="4" t="n">
         <v>20158.851300000002</v>
       </c>
     </row>
@@ -835,10 +837,10 @@
       <c r="F15" s="0" t="n">
         <v>6450.0</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="3" t="n">
         <v>10005.853200000001</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="4" t="n">
         <v>14861.634900000001</v>
       </c>
     </row>
@@ -861,10 +863,10 @@
       <c r="F16" s="0" t="n">
         <v>8990.0</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="3" t="n">
         <v>9122.9838</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="4" t="n">
         <v>20747.4309</v>
       </c>
     </row>
@@ -887,10 +889,10 @@
       <c r="F17" s="0" t="n">
         <v>5545.0</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="3" t="n">
         <v>13537.3308</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4" t="n">
         <v>21188.8656</v>
       </c>
     </row>
@@ -913,10 +915,10 @@
       <c r="F18" s="0" t="n">
         <v>8290.0</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="3" t="n">
         <v>7798.679700000001</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="4" t="n">
         <v>12948.7512</v>
       </c>
     </row>
@@ -939,10 +941,10 @@
       <c r="F19" s="0" t="n">
         <v>6645.0</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="3" t="n">
         <v>3384.3327</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="4" t="n">
         <v>7357.245000000001</v>
       </c>
     </row>
@@ -965,10 +967,10 @@
       <c r="F20" s="0" t="n">
         <v>7003.0</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="3" t="n">
         <v>8975.8389</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="4" t="n">
         <v>16627.3737</v>
       </c>
     </row>
@@ -991,10 +993,10 @@
       <c r="F21" s="0" t="n">
         <v>3627.0</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="3" t="n">
         <v>9858.7083</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="4" t="n">
         <v>16038.794100000001</v>
       </c>
     </row>
@@ -1017,10 +1019,10 @@
       <c r="F22" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="3" t="n">
         <v>5444.3613000000005</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="4" t="n">
         <v>11183.0124</v>
       </c>
     </row>
@@ -1043,10 +1045,10 @@
       <c r="F23" s="0" t="n">
         <v>1898.0</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="3" t="n">
         <v>12065.881800000001</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="4" t="n">
         <v>18098.8227</v>
       </c>
     </row>
@@ -1069,10 +1071,10 @@
       <c r="F24" s="0" t="n">
         <v>5942.0</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="3" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="4" t="n">
         <v>10152.9981</v>
       </c>
     </row>
@@ -1095,10 +1097,10 @@
       <c r="F25" s="0" t="n">
         <v>9173.0</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="3" t="n">
         <v>6915.8103</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="4" t="n">
         <v>13095.8961</v>
       </c>
     </row>
@@ -1121,10 +1123,10 @@
       <c r="F26" s="0" t="n">
         <v>2902.0</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="3" t="n">
         <v>3825.7674</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="4" t="n">
         <v>9711.563400000001</v>
       </c>
     </row>
@@ -1147,10 +1149,10 @@
       <c r="F27" s="0" t="n">
         <v>6621.0</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="3" t="n">
         <v>7210.100100000001</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="4" t="n">
         <v>12360.171600000001</v>
       </c>
     </row>
@@ -1173,10 +1175,10 @@
       <c r="F28" s="0" t="n">
         <v>6812.0</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="3" t="n">
         <v>4267.2021</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="4" t="n">
         <v>10005.853200000001</v>
       </c>
     </row>
@@ -1199,10 +1201,10 @@
       <c r="F29" s="0" t="n">
         <v>2081.0</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="3" t="n">
         <v>3237.1878</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="4" t="n">
         <v>6032.9409000000005</v>
       </c>
     </row>
@@ -1225,10 +1227,10 @@
       <c r="F30" s="0" t="n">
         <v>2756.0</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="3" t="n">
         <v>5297.2164</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="4" t="n">
         <v>10594.4328</v>
       </c>
     </row>
@@ -1251,10 +1253,10 @@
       <c r="F31" s="0" t="n">
         <v>178.0</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="3" t="n">
         <v>9858.7083</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="4" t="n">
         <v>14714.490000000002</v>
       </c>
     </row>
@@ -1277,10 +1279,10 @@
       <c r="F32" s="0" t="n">
         <v>814.0</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="3" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="4" t="n">
         <v>9564.4185</v>
       </c>
     </row>
@@ -1303,10 +1305,10 @@
       <c r="F33" s="0" t="n">
         <v>136.0</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="3" t="n">
         <v>4855.7817000000005</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="4" t="n">
         <v>10152.9981</v>
       </c>
     </row>
@@ -1329,10 +1331,10 @@
       <c r="F34" s="0" t="n">
         <v>7062.0</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="3" t="n">
         <v>3972.9123</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="4" t="n">
         <v>6474.3756</v>
       </c>
     </row>
@@ -1355,10 +1357,10 @@
       <c r="F35" s="0" t="n">
         <v>1645.0</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="3" t="n">
         <v>5444.3613000000005</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="4" t="n">
         <v>8681.5491</v>
       </c>
     </row>
@@ -1381,10 +1383,10 @@
       <c r="F36" s="0" t="n">
         <v>1897.0</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="3" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="4" t="n">
         <v>9858.7083</v>
       </c>
     </row>
@@ -1407,10 +1409,10 @@
       <c r="F37" s="0" t="n">
         <v>5841.0</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="3" t="n">
         <v>7504.3899</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="4" t="n">
         <v>13390.1859</v>
       </c>
     </row>
@@ -1433,10 +1435,10 @@
       <c r="F38" s="0" t="n">
         <v>737.0</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="3" t="n">
         <v>6327.2307</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="4" t="n">
         <v>12801.606300000001</v>
       </c>
     </row>
@@ -1459,10 +1461,10 @@
       <c r="F39" s="0" t="n">
         <v>3501.0</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="3" t="n">
         <v>5885.796</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="4" t="n">
         <v>13390.1859</v>
       </c>
     </row>
@@ -1485,10 +1487,10 @@
       <c r="F40" s="0" t="n">
         <v>9653.0</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="3" t="n">
         <v>10152.9981</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="4" t="n">
         <v>14714.490000000002</v>
       </c>
     </row>
@@ -1511,10 +1513,10 @@
       <c r="F41" s="0" t="n">
         <v>7083.0</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="3" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="4" t="n">
         <v>10594.4328</v>
       </c>
     </row>
@@ -1537,10 +1539,10 @@
       <c r="F42" s="0" t="n">
         <v>6934.0</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="3" t="n">
         <v>6915.8103</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="4" t="n">
         <v>14861.634900000001</v>
       </c>
     </row>
@@ -1563,10 +1565,10 @@
       <c r="F43" s="0" t="n">
         <v>7106.0</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="3" t="n">
         <v>8681.5491</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="4" t="n">
         <v>17510.2431</v>
       </c>
     </row>
@@ -1589,10 +1591,10 @@
       <c r="F44" s="0" t="n">
         <v>551.0</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="3" t="n">
         <v>7945.8246</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="4" t="n">
         <v>11771.592</v>
       </c>
     </row>
@@ -1615,10 +1617,10 @@
       <c r="F45" s="0" t="n">
         <v>8820.0</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="3" t="n">
         <v>5297.2164</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="4" t="n">
         <v>10888.722600000001</v>
       </c>
     </row>
@@ -1641,10 +1643,10 @@
       <c r="F46" s="0" t="n">
         <v>4857.0</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="3" t="n">
         <v>4855.7817000000005</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="4" t="n">
         <v>7357.245000000001</v>
       </c>
     </row>

--- a/Output/Japan/PRODUCTS_Japan.xlsx
+++ b/Output/Japan/PRODUCTS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="126">
   <si>
     <t>PRODUCTCODE</t>
   </si>
@@ -426,8 +426,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -499,10 +503,10 @@
       <c r="F2" t="n">
         <v>7305.0</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="7" t="n">
         <v>14567.3451</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="8" t="n">
         <v>31489.0086</v>
       </c>
     </row>
@@ -525,10 +529,10 @@
       <c r="F3" s="0" t="n">
         <v>6625.0</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="7" t="n">
         <v>10152.9981</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="8" t="n">
         <v>17510.2431</v>
       </c>
     </row>
@@ -551,10 +555,10 @@
       <c r="F4" s="0" t="n">
         <v>5582.0</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="7" t="n">
         <v>13390.1859</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="8" t="n">
         <v>28546.1106</v>
       </c>
     </row>
@@ -577,10 +581,10 @@
       <c r="F5" s="0" t="n">
         <v>1579.0</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="7" t="n">
         <v>11477.3022</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="8" t="n">
         <v>20158.851300000002</v>
       </c>
     </row>
@@ -603,10 +607,10 @@
       <c r="F6" s="0" t="n">
         <v>6906.0</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="7" t="n">
         <v>13095.8961</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="8" t="n">
         <v>22218.8799</v>
       </c>
     </row>
@@ -629,10 +633,10 @@
       <c r="F7" s="0" t="n">
         <v>1049.0</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="7" t="n">
         <v>12213.0267</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="8" t="n">
         <v>25456.0677</v>
       </c>
     </row>
@@ -655,10 +659,10 @@
       <c r="F8" s="0" t="n">
         <v>2613.0</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="7" t="n">
         <v>8534.4042</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="8" t="n">
         <v>17215.9533</v>
       </c>
     </row>
@@ -681,10 +685,10 @@
       <c r="F9" s="0" t="n">
         <v>3975.0</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="7" t="n">
         <v>12360.171600000001</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="8" t="n">
         <v>20894.575800000002</v>
       </c>
     </row>
@@ -707,10 +711,10 @@
       <c r="F10" s="0" t="n">
         <v>5330.0</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="7" t="n">
         <v>11330.1573</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="8" t="n">
         <v>23248.894200000002</v>
       </c>
     </row>
@@ -733,10 +737,10 @@
       <c r="F11" s="0" t="n">
         <v>9772.0</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="7" t="n">
         <v>13831.6206</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="8" t="n">
         <v>20894.575800000002</v>
       </c>
     </row>
@@ -759,10 +763,10 @@
       <c r="F12" s="0" t="n">
         <v>992.0</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="7" t="n">
         <v>7210.100100000001</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="8" t="n">
         <v>12360.171600000001</v>
       </c>
     </row>
@@ -785,10 +789,10 @@
       <c r="F13" s="0" t="n">
         <v>4357.0</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="7" t="n">
         <v>3531.4776</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="8" t="n">
         <v>8975.8389</v>
       </c>
     </row>
@@ -811,10 +815,10 @@
       <c r="F14" s="0" t="n">
         <v>3913.0</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="7" t="n">
         <v>10005.853200000001</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="8" t="n">
         <v>20158.851300000002</v>
       </c>
     </row>
@@ -837,10 +841,10 @@
       <c r="F15" s="0" t="n">
         <v>6450.0</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="7" t="n">
         <v>10005.853200000001</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="8" t="n">
         <v>14861.634900000001</v>
       </c>
     </row>
@@ -863,10 +867,10 @@
       <c r="F16" s="0" t="n">
         <v>8990.0</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="7" t="n">
         <v>9122.9838</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="8" t="n">
         <v>20747.4309</v>
       </c>
     </row>
@@ -889,10 +893,10 @@
       <c r="F17" s="0" t="n">
         <v>5545.0</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="7" t="n">
         <v>13537.3308</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="8" t="n">
         <v>21188.8656</v>
       </c>
     </row>
@@ -915,10 +919,10 @@
       <c r="F18" s="0" t="n">
         <v>8290.0</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="7" t="n">
         <v>7798.679700000001</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="8" t="n">
         <v>12948.7512</v>
       </c>
     </row>
@@ -941,10 +945,10 @@
       <c r="F19" s="0" t="n">
         <v>6645.0</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="7" t="n">
         <v>3384.3327</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="8" t="n">
         <v>7357.245000000001</v>
       </c>
     </row>
@@ -967,10 +971,10 @@
       <c r="F20" s="0" t="n">
         <v>7003.0</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="7" t="n">
         <v>8975.8389</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="8" t="n">
         <v>16627.3737</v>
       </c>
     </row>
@@ -993,10 +997,10 @@
       <c r="F21" s="0" t="n">
         <v>3627.0</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="7" t="n">
         <v>9858.7083</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="8" t="n">
         <v>16038.794100000001</v>
       </c>
     </row>
@@ -1019,10 +1023,10 @@
       <c r="F22" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="7" t="n">
         <v>5444.3613000000005</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="8" t="n">
         <v>11183.0124</v>
       </c>
     </row>
@@ -1045,10 +1049,10 @@
       <c r="F23" s="0" t="n">
         <v>1898.0</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="7" t="n">
         <v>12065.881800000001</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="8" t="n">
         <v>18098.8227</v>
       </c>
     </row>
@@ -1071,10 +1075,10 @@
       <c r="F24" s="0" t="n">
         <v>5942.0</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="7" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="8" t="n">
         <v>10152.9981</v>
       </c>
     </row>
@@ -1097,10 +1101,10 @@
       <c r="F25" s="0" t="n">
         <v>9173.0</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="7" t="n">
         <v>6915.8103</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="8" t="n">
         <v>13095.8961</v>
       </c>
     </row>
@@ -1123,10 +1127,10 @@
       <c r="F26" s="0" t="n">
         <v>2902.0</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="7" t="n">
         <v>3825.7674</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="8" t="n">
         <v>9711.563400000001</v>
       </c>
     </row>
@@ -1149,10 +1153,10 @@
       <c r="F27" s="0" t="n">
         <v>6621.0</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="7" t="n">
         <v>7210.100100000001</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="8" t="n">
         <v>12360.171600000001</v>
       </c>
     </row>
@@ -1175,10 +1179,10 @@
       <c r="F28" s="0" t="n">
         <v>6812.0</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="7" t="n">
         <v>4267.2021</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="8" t="n">
         <v>10005.853200000001</v>
       </c>
     </row>
@@ -1201,10 +1205,10 @@
       <c r="F29" s="0" t="n">
         <v>2081.0</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="7" t="n">
         <v>3237.1878</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="8" t="n">
         <v>6032.9409000000005</v>
       </c>
     </row>
@@ -1227,10 +1231,10 @@
       <c r="F30" s="0" t="n">
         <v>2756.0</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="7" t="n">
         <v>5297.2164</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="8" t="n">
         <v>10594.4328</v>
       </c>
     </row>
@@ -1253,10 +1257,10 @@
       <c r="F31" s="0" t="n">
         <v>178.0</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="7" t="n">
         <v>9858.7083</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="8" t="n">
         <v>14714.490000000002</v>
       </c>
     </row>
@@ -1279,10 +1283,10 @@
       <c r="F32" s="0" t="n">
         <v>814.0</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="7" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="8" t="n">
         <v>9564.4185</v>
       </c>
     </row>
@@ -1305,10 +1309,10 @@
       <c r="F33" s="0" t="n">
         <v>136.0</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="7" t="n">
         <v>4855.7817000000005</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="8" t="n">
         <v>10152.9981</v>
       </c>
     </row>
@@ -1331,10 +1335,10 @@
       <c r="F34" s="0" t="n">
         <v>7062.0</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="7" t="n">
         <v>3972.9123</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="8" t="n">
         <v>6474.3756</v>
       </c>
     </row>
@@ -1357,10 +1361,10 @@
       <c r="F35" s="0" t="n">
         <v>1645.0</v>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="7" t="n">
         <v>5444.3613000000005</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="8" t="n">
         <v>8681.5491</v>
       </c>
     </row>
@@ -1383,10 +1387,10 @@
       <c r="F36" s="0" t="n">
         <v>1897.0</v>
       </c>
-      <c r="G36" s="3" t="n">
+      <c r="G36" s="7" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="8" t="n">
         <v>9858.7083</v>
       </c>
     </row>
@@ -1409,10 +1413,10 @@
       <c r="F37" s="0" t="n">
         <v>5841.0</v>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G37" s="7" t="n">
         <v>7504.3899</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="8" t="n">
         <v>13390.1859</v>
       </c>
     </row>
@@ -1435,10 +1439,10 @@
       <c r="F38" s="0" t="n">
         <v>737.0</v>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="7" t="n">
         <v>6327.2307</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="8" t="n">
         <v>12801.606300000001</v>
       </c>
     </row>
@@ -1461,10 +1465,10 @@
       <c r="F39" s="0" t="n">
         <v>3501.0</v>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" s="7" t="n">
         <v>5885.796</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="8" t="n">
         <v>13390.1859</v>
       </c>
     </row>
@@ -1487,10 +1491,10 @@
       <c r="F40" s="0" t="n">
         <v>9653.0</v>
       </c>
-      <c r="G40" s="3" t="n">
+      <c r="G40" s="7" t="n">
         <v>10152.9981</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="8" t="n">
         <v>14714.490000000002</v>
       </c>
     </row>
@@ -1513,10 +1517,10 @@
       <c r="F41" s="0" t="n">
         <v>7083.0</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="7" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="8" t="n">
         <v>10594.4328</v>
       </c>
     </row>
@@ -1539,10 +1543,10 @@
       <c r="F42" s="0" t="n">
         <v>6934.0</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="7" t="n">
         <v>6915.8103</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="8" t="n">
         <v>14861.634900000001</v>
       </c>
     </row>
@@ -1565,10 +1569,10 @@
       <c r="F43" s="0" t="n">
         <v>7106.0</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="7" t="n">
         <v>8681.5491</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="8" t="n">
         <v>17510.2431</v>
       </c>
     </row>
@@ -1591,10 +1595,10 @@
       <c r="F44" s="0" t="n">
         <v>551.0</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="7" t="n">
         <v>7945.8246</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="8" t="n">
         <v>11771.592</v>
       </c>
     </row>
@@ -1617,10 +1621,10 @@
       <c r="F45" s="0" t="n">
         <v>8820.0</v>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="7" t="n">
         <v>5297.2164</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="8" t="n">
         <v>10888.722600000001</v>
       </c>
     </row>
@@ -1643,10 +1647,10 @@
       <c r="F46" s="0" t="n">
         <v>4857.0</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="7" t="n">
         <v>4855.7817000000005</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="8" t="n">
         <v>7357.245000000001</v>
       </c>
     </row>

--- a/Output/Japan/PRODUCTS_Japan.xlsx
+++ b/Output/Japan/PRODUCTS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="126">
   <si>
     <t>PRODUCTCODE</t>
   </si>
@@ -426,14 +426,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -503,10 +497,10 @@
       <c r="F2" t="n">
         <v>7305.0</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="1" t="n">
         <v>14567.3451</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="2" t="n">
         <v>31489.0086</v>
       </c>
     </row>
@@ -529,10 +523,10 @@
       <c r="F3" s="0" t="n">
         <v>6625.0</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="1" t="n">
         <v>10152.9981</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="2" t="n">
         <v>17510.2431</v>
       </c>
     </row>
@@ -555,10 +549,10 @@
       <c r="F4" s="0" t="n">
         <v>5582.0</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="1" t="n">
         <v>13390.1859</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="2" t="n">
         <v>28546.1106</v>
       </c>
     </row>
@@ -581,10 +575,10 @@
       <c r="F5" s="0" t="n">
         <v>1579.0</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="1" t="n">
         <v>11477.3022</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="2" t="n">
         <v>20158.851300000002</v>
       </c>
     </row>
@@ -607,10 +601,10 @@
       <c r="F6" s="0" t="n">
         <v>6906.0</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="1" t="n">
         <v>13095.8961</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="2" t="n">
         <v>22218.8799</v>
       </c>
     </row>
@@ -633,10 +627,10 @@
       <c r="F7" s="0" t="n">
         <v>1049.0</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="1" t="n">
         <v>12213.0267</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="2" t="n">
         <v>25456.0677</v>
       </c>
     </row>
@@ -659,10 +653,10 @@
       <c r="F8" s="0" t="n">
         <v>2613.0</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="1" t="n">
         <v>8534.4042</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="2" t="n">
         <v>17215.9533</v>
       </c>
     </row>
@@ -685,10 +679,10 @@
       <c r="F9" s="0" t="n">
         <v>3975.0</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="1" t="n">
         <v>12360.171600000001</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="2" t="n">
         <v>20894.575800000002</v>
       </c>
     </row>
@@ -711,10 +705,10 @@
       <c r="F10" s="0" t="n">
         <v>5330.0</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="1" t="n">
         <v>11330.1573</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="2" t="n">
         <v>23248.894200000002</v>
       </c>
     </row>
@@ -737,10 +731,10 @@
       <c r="F11" s="0" t="n">
         <v>9772.0</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="1" t="n">
         <v>13831.6206</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="2" t="n">
         <v>20894.575800000002</v>
       </c>
     </row>
@@ -763,10 +757,10 @@
       <c r="F12" s="0" t="n">
         <v>992.0</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="1" t="n">
         <v>7210.100100000001</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="2" t="n">
         <v>12360.171600000001</v>
       </c>
     </row>
@@ -789,10 +783,10 @@
       <c r="F13" s="0" t="n">
         <v>4357.0</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="1" t="n">
         <v>3531.4776</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="2" t="n">
         <v>8975.8389</v>
       </c>
     </row>
@@ -815,10 +809,10 @@
       <c r="F14" s="0" t="n">
         <v>3913.0</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="1" t="n">
         <v>10005.853200000001</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="2" t="n">
         <v>20158.851300000002</v>
       </c>
     </row>
@@ -841,10 +835,10 @@
       <c r="F15" s="0" t="n">
         <v>6450.0</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="1" t="n">
         <v>10005.853200000001</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="2" t="n">
         <v>14861.634900000001</v>
       </c>
     </row>
@@ -867,10 +861,10 @@
       <c r="F16" s="0" t="n">
         <v>8990.0</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="1" t="n">
         <v>9122.9838</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="2" t="n">
         <v>20747.4309</v>
       </c>
     </row>
@@ -893,10 +887,10 @@
       <c r="F17" s="0" t="n">
         <v>5545.0</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="1" t="n">
         <v>13537.3308</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="2" t="n">
         <v>21188.8656</v>
       </c>
     </row>
@@ -919,10 +913,10 @@
       <c r="F18" s="0" t="n">
         <v>8290.0</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="1" t="n">
         <v>7798.679700000001</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="2" t="n">
         <v>12948.7512</v>
       </c>
     </row>
@@ -945,10 +939,10 @@
       <c r="F19" s="0" t="n">
         <v>6645.0</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="1" t="n">
         <v>3384.3327</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="2" t="n">
         <v>7357.245000000001</v>
       </c>
     </row>
@@ -971,10 +965,10 @@
       <c r="F20" s="0" t="n">
         <v>7003.0</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="1" t="n">
         <v>8975.8389</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="2" t="n">
         <v>16627.3737</v>
       </c>
     </row>
@@ -997,10 +991,10 @@
       <c r="F21" s="0" t="n">
         <v>3627.0</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="1" t="n">
         <v>9858.7083</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="2" t="n">
         <v>16038.794100000001</v>
       </c>
     </row>
@@ -1023,10 +1017,10 @@
       <c r="F22" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="1" t="n">
         <v>5444.3613000000005</v>
       </c>
-      <c r="H22" s="8" t="n">
+      <c r="H22" s="2" t="n">
         <v>11183.0124</v>
       </c>
     </row>
@@ -1049,10 +1043,10 @@
       <c r="F23" s="0" t="n">
         <v>1898.0</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="1" t="n">
         <v>12065.881800000001</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="2" t="n">
         <v>18098.8227</v>
       </c>
     </row>
@@ -1075,10 +1069,10 @@
       <c r="F24" s="0" t="n">
         <v>5942.0</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="1" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24" s="2" t="n">
         <v>10152.9981</v>
       </c>
     </row>
@@ -1101,10 +1095,10 @@
       <c r="F25" s="0" t="n">
         <v>9173.0</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="G25" s="1" t="n">
         <v>6915.8103</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25" s="2" t="n">
         <v>13095.8961</v>
       </c>
     </row>
@@ -1127,10 +1121,10 @@
       <c r="F26" s="0" t="n">
         <v>2902.0</v>
       </c>
-      <c r="G26" s="7" t="n">
+      <c r="G26" s="1" t="n">
         <v>3825.7674</v>
       </c>
-      <c r="H26" s="8" t="n">
+      <c r="H26" s="2" t="n">
         <v>9711.563400000001</v>
       </c>
     </row>
@@ -1153,10 +1147,10 @@
       <c r="F27" s="0" t="n">
         <v>6621.0</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="1" t="n">
         <v>7210.100100000001</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="2" t="n">
         <v>12360.171600000001</v>
       </c>
     </row>
@@ -1179,10 +1173,10 @@
       <c r="F28" s="0" t="n">
         <v>6812.0</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="1" t="n">
         <v>4267.2021</v>
       </c>
-      <c r="H28" s="8" t="n">
+      <c r="H28" s="2" t="n">
         <v>10005.853200000001</v>
       </c>
     </row>
@@ -1205,10 +1199,10 @@
       <c r="F29" s="0" t="n">
         <v>2081.0</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="1" t="n">
         <v>3237.1878</v>
       </c>
-      <c r="H29" s="8" t="n">
+      <c r="H29" s="2" t="n">
         <v>6032.9409000000005</v>
       </c>
     </row>
@@ -1231,10 +1225,10 @@
       <c r="F30" s="0" t="n">
         <v>2756.0</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="1" t="n">
         <v>5297.2164</v>
       </c>
-      <c r="H30" s="8" t="n">
+      <c r="H30" s="2" t="n">
         <v>10594.4328</v>
       </c>
     </row>
@@ -1257,10 +1251,10 @@
       <c r="F31" s="0" t="n">
         <v>178.0</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="1" t="n">
         <v>9858.7083</v>
       </c>
-      <c r="H31" s="8" t="n">
+      <c r="H31" s="2" t="n">
         <v>14714.490000000002</v>
       </c>
     </row>
@@ -1283,10 +1277,10 @@
       <c r="F32" s="0" t="n">
         <v>814.0</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="1" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H32" s="8" t="n">
+      <c r="H32" s="2" t="n">
         <v>9564.4185</v>
       </c>
     </row>
@@ -1309,10 +1303,10 @@
       <c r="F33" s="0" t="n">
         <v>136.0</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="1" t="n">
         <v>4855.7817000000005</v>
       </c>
-      <c r="H33" s="8" t="n">
+      <c r="H33" s="2" t="n">
         <v>10152.9981</v>
       </c>
     </row>
@@ -1335,10 +1329,10 @@
       <c r="F34" s="0" t="n">
         <v>7062.0</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="1" t="n">
         <v>3972.9123</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="2" t="n">
         <v>6474.3756</v>
       </c>
     </row>
@@ -1361,10 +1355,10 @@
       <c r="F35" s="0" t="n">
         <v>1645.0</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="1" t="n">
         <v>5444.3613000000005</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35" s="2" t="n">
         <v>8681.5491</v>
       </c>
     </row>
@@ -1387,10 +1381,10 @@
       <c r="F36" s="0" t="n">
         <v>1897.0</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="1" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="2" t="n">
         <v>9858.7083</v>
       </c>
     </row>
@@ -1413,10 +1407,10 @@
       <c r="F37" s="0" t="n">
         <v>5841.0</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G37" s="1" t="n">
         <v>7504.3899</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37" s="2" t="n">
         <v>13390.1859</v>
       </c>
     </row>
@@ -1439,10 +1433,10 @@
       <c r="F38" s="0" t="n">
         <v>737.0</v>
       </c>
-      <c r="G38" s="7" t="n">
+      <c r="G38" s="1" t="n">
         <v>6327.2307</v>
       </c>
-      <c r="H38" s="8" t="n">
+      <c r="H38" s="2" t="n">
         <v>12801.606300000001</v>
       </c>
     </row>
@@ -1465,10 +1459,10 @@
       <c r="F39" s="0" t="n">
         <v>3501.0</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="G39" s="1" t="n">
         <v>5885.796</v>
       </c>
-      <c r="H39" s="8" t="n">
+      <c r="H39" s="2" t="n">
         <v>13390.1859</v>
       </c>
     </row>
@@ -1491,10 +1485,10 @@
       <c r="F40" s="0" t="n">
         <v>9653.0</v>
       </c>
-      <c r="G40" s="7" t="n">
+      <c r="G40" s="1" t="n">
         <v>10152.9981</v>
       </c>
-      <c r="H40" s="8" t="n">
+      <c r="H40" s="2" t="n">
         <v>14714.490000000002</v>
       </c>
     </row>
@@ -1517,10 +1511,10 @@
       <c r="F41" s="0" t="n">
         <v>7083.0</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G41" s="1" t="n">
         <v>5002.926600000001</v>
       </c>
-      <c r="H41" s="8" t="n">
+      <c r="H41" s="2" t="n">
         <v>10594.4328</v>
       </c>
     </row>
@@ -1543,10 +1537,10 @@
       <c r="F42" s="0" t="n">
         <v>6934.0</v>
       </c>
-      <c r="G42" s="7" t="n">
+      <c r="G42" s="1" t="n">
         <v>6915.8103</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="2" t="n">
         <v>14861.634900000001</v>
       </c>
     </row>
@@ -1569,10 +1563,10 @@
       <c r="F43" s="0" t="n">
         <v>7106.0</v>
       </c>
-      <c r="G43" s="7" t="n">
+      <c r="G43" s="1" t="n">
         <v>8681.5491</v>
       </c>
-      <c r="H43" s="8" t="n">
+      <c r="H43" s="2" t="n">
         <v>17510.2431</v>
       </c>
     </row>
@@ -1595,10 +1589,10 @@
       <c r="F44" s="0" t="n">
         <v>551.0</v>
       </c>
-      <c r="G44" s="7" t="n">
+      <c r="G44" s="1" t="n">
         <v>7945.8246</v>
       </c>
-      <c r="H44" s="8" t="n">
+      <c r="H44" s="2" t="n">
         <v>11771.592</v>
       </c>
     </row>
@@ -1621,10 +1615,10 @@
       <c r="F45" s="0" t="n">
         <v>8820.0</v>
       </c>
-      <c r="G45" s="7" t="n">
+      <c r="G45" s="1" t="n">
         <v>5297.2164</v>
       </c>
-      <c r="H45" s="8" t="n">
+      <c r="H45" s="2" t="n">
         <v>10888.722600000001</v>
       </c>
     </row>
@@ -1647,10 +1641,10 @@
       <c r="F46" s="0" t="n">
         <v>4857.0</v>
       </c>
-      <c r="G46" s="7" t="n">
+      <c r="G46" s="1" t="n">
         <v>4855.7817000000005</v>
       </c>
-      <c r="H46" s="8" t="n">
+      <c r="H46" s="2" t="n">
         <v>7357.245000000001</v>
       </c>
     </row>
